--- a/참조파일/memo-테이블명세(2019-07-18).xlsx
+++ b/참조파일/memo-테이블명세(2019-07-18).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>테이블 이름</t>
   </si>
@@ -267,6 +267,14 @@
   </si>
   <si>
     <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo_time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -877,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L17"/>
+  <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1804,20 +1812,22 @@
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
-      <c r="C14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>55</v>
+      <c r="C14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
@@ -1826,16 +1836,16 @@
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -1847,16 +1857,16 @@
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -1865,18 +1875,39 @@
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9"/>
+      <c r="C17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
